--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -3696,7 +3696,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mã nhân viên</t>
+          <t>Nhân viên</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,21 +2138,23 @@
         <v>22000000</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="Q20" t="n">
-        <v>22000000</v>
+        <v>29000000</v>
       </c>
       <c r="R20" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T20" t="n">
-        <v/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
       </c>
       <c r="U20" t="n">
         <v>100000</v>
@@ -2244,51 +2246,395 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>593</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trần thị ngọc bích </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v/>
+      </c>
+      <c r="L22" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v/>
+      </c>
+      <c r="O22" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v/>
+      </c>
+      <c r="U22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>594</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>thạch thị sơ ri</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v/>
+      </c>
+      <c r="O23" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v/>
+      </c>
+      <c r="U23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>595</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trương thị lan </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v/>
+      </c>
+      <c r="L24" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v/>
+      </c>
+      <c r="O24" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v/>
+      </c>
+      <c r="U24" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V24" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>596</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>bảo trân</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J25" t="n">
+        <v/>
+      </c>
+      <c r="K25" t="n">
+        <v/>
+      </c>
+      <c r="L25" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v/>
+      </c>
+      <c r="O25" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v/>
+      </c>
+      <c r="U25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>184788000</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>254788000</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
         <v>9800000</v>
       </c>
-      <c r="L22" t="n">
-        <v>194588000</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>179588000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>187588000</v>
-      </c>
-      <c r="R22" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>850000</v>
-      </c>
-      <c r="V22" t="n">
-        <v>200000</v>
+      <c r="L26" t="n">
+        <v>264588000</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>249588000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>264588000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>350000</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,17 +4007,185 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>707</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>708</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>709</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>715000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>710</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>711</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>712</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>47</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
-        <v>151545000</v>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>167960000</v>
       </c>
     </row>
   </sheetData>
@@ -3832,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>700000</v>
+        <v>900000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -3866,10 +4380,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -3888,13 +4402,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56000000</v>
+        <v>89000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>25000000</v>
+        <v>82000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3912,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="7">
@@ -3922,7 +4436,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44000000</v>
+        <v>46000000</v>
       </c>
       <c r="C7" t="n">
         <v>9000000</v>
@@ -3962,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>49500000</v>
+        <v>51500000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3996,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>63000000</v>
+        <v>81000000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -4024,7 +4538,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66000000</v>
+        <v>101000000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -4070,16 +4584,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -4126,31 +4640,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183288000</v>
+        <v>253288000</v>
       </c>
       <c r="C13" t="n">
         <v>9800000</v>
       </c>
       <c r="D13" t="n">
-        <v>187588000</v>
+        <v>264588000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>700000</v>
+        <v>1050000</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="J13" t="n">
-        <v>25000000</v>
+        <v>32000000</v>
       </c>
     </row>
   </sheetData>
@@ -4191,7 +4705,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20840000</v>
+        <v>27840000</v>
       </c>
     </row>
     <row r="3">
@@ -4211,7 +4725,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5043000</v>
+        <v>5758000</v>
       </c>
     </row>
     <row r="5">
@@ -4221,7 +4735,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5405000</v>
+        <v>5705000</v>
       </c>
     </row>
     <row r="6">
@@ -4261,7 +4775,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9313000</v>
+        <v>11713000</v>
       </c>
     </row>
     <row r="10">
@@ -4271,7 +4785,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11500000</v>
+        <v>17500000</v>
       </c>
     </row>
     <row r="11">
@@ -4291,7 +4805,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151545000</v>
+        <v>167960000</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4778,26 +5292,51 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16415000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60585000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>194588000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>179588000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" t="n">
-        <v>26000000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>151545000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>54043000</v>
+      <c r="B20" t="n">
+        <v>264588000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>249588000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24</v>
+      </c>
+      <c r="E20" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>167960000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>114628000</v>
       </c>
     </row>
   </sheetData>
